--- a/results/I3_N5_M2_T15_C200_DepCentral_s1_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1124.249686389907</v>
+        <v>325.9596863901648</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1490001678466797</v>
+        <v>0.1119999885559082</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>804.7399999997418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.55</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.398188525450065</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6099999999932</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.594999999992</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2399999999924</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4399999999932</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6549999999933</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.44000000001733</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>38.53500000001741</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.3700000000172</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.81500000001712</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>45.83500000001835</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>129.5099999999529</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>127.0750000000812</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>116.2799999999553</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>128.7849999999577</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>128.5799999999509</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>182.1099999999824</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>179.2049999999817</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>182.6599999999819</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>181.4849999999842</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>180.2899999999826</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>283.8349999999867</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>275.3249999999857</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>280.9249999998914</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>278.429999999988</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>283.8549999999886</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>129.5099999999411</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>127.0750000000833</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>116.2799999999436</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>128.784999999946</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>128.5799999999393</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>283.8349999999947</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>275.3249999999938</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>280.9249999998967</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>278.4299999999939</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>283.8549999999952</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>83.83499999999407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>75.32499999999317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>80.92499999989599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>78.42999999999319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>83.8549999999945</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1888,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,61 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
